--- a/Code/Results/Cases/Case_0_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_196/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9767744038582278</v>
+        <v>1.024885835776341</v>
       </c>
       <c r="D2">
-        <v>0.9854000832194516</v>
+        <v>1.027530404479445</v>
       </c>
       <c r="E2">
-        <v>0.9861522476185126</v>
+        <v>1.025282178188</v>
       </c>
       <c r="F2">
-        <v>0.9523528805670521</v>
+        <v>1.023375831561647</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035572225536213</v>
+        <v>1.029398573948809</v>
       </c>
       <c r="J2">
-        <v>0.9996726965262128</v>
+        <v>1.030057944561719</v>
       </c>
       <c r="K2">
-        <v>0.9970666364135435</v>
+        <v>1.030349864236994</v>
       </c>
       <c r="L2">
-        <v>0.9978079353310578</v>
+        <v>1.028108205776566</v>
       </c>
       <c r="M2">
-        <v>0.9645184995292381</v>
+        <v>1.026207452831525</v>
       </c>
       <c r="N2">
-        <v>1.003276593578786</v>
+        <v>1.013949506833425</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9837721469482392</v>
+        <v>1.026247476100909</v>
       </c>
       <c r="D3">
-        <v>0.9916998599159214</v>
+        <v>1.028804876444447</v>
       </c>
       <c r="E3">
-        <v>0.9919058712562747</v>
+        <v>1.026450230152765</v>
       </c>
       <c r="F3">
-        <v>0.9622844870547247</v>
+        <v>1.025380114816553</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037161939186857</v>
+        <v>1.029617767452617</v>
       </c>
       <c r="J3">
-        <v>1.004715192658081</v>
+        <v>1.031056554653581</v>
       </c>
       <c r="K3">
-        <v>1.002440055882677</v>
+        <v>1.031430819698768</v>
       </c>
       <c r="L3">
-        <v>1.002643376412759</v>
+        <v>1.029082548166909</v>
       </c>
       <c r="M3">
-        <v>0.9734238268446921</v>
+        <v>1.028015340439793</v>
       </c>
       <c r="N3">
-        <v>1.005024150541565</v>
+        <v>1.014289224448835</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9881561042004082</v>
+        <v>1.027126755963512</v>
       </c>
       <c r="D4">
-        <v>0.9956514408572462</v>
+        <v>1.029628087600074</v>
       </c>
       <c r="E4">
-        <v>0.9955170670194349</v>
+        <v>1.027204790601749</v>
       </c>
       <c r="F4">
-        <v>0.968491019697027</v>
+        <v>1.026674795879949</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038143125056237</v>
+        <v>1.029757460501956</v>
       </c>
       <c r="J4">
-        <v>1.007867708253936</v>
+        <v>1.031700534301232</v>
       </c>
       <c r="K4">
-        <v>1.005802634053728</v>
+        <v>1.032128273735062</v>
       </c>
       <c r="L4">
-        <v>1.005669899920226</v>
+        <v>1.029711202872723</v>
       </c>
       <c r="M4">
-        <v>0.9789852186413031</v>
+        <v>1.02918257408318</v>
       </c>
       <c r="N4">
-        <v>1.006115889129964</v>
+        <v>1.014508073131047</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9899666632944084</v>
+        <v>1.02749598362172</v>
       </c>
       <c r="D5">
-        <v>0.997284541749205</v>
+        <v>1.029973823085706</v>
       </c>
       <c r="E5">
-        <v>0.9970099881105863</v>
+        <v>1.027521714744117</v>
       </c>
       <c r="F5">
-        <v>0.9710512187160111</v>
+        <v>1.027218564016546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038544756550456</v>
+        <v>1.029815676697336</v>
       </c>
       <c r="J5">
-        <v>1.009168094084267</v>
+        <v>1.031970745254772</v>
       </c>
       <c r="K5">
-        <v>1.007190424760164</v>
+        <v>1.032421011380872</v>
       </c>
       <c r="L5">
-        <v>1.006919124493373</v>
+        <v>1.029975061175865</v>
       </c>
       <c r="M5">
-        <v>0.9812783239286984</v>
+        <v>1.029672673969944</v>
       </c>
       <c r="N5">
-        <v>1.006566006496421</v>
+        <v>1.014599846381376</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9902688163786684</v>
+        <v>1.027557954065214</v>
       </c>
       <c r="D6">
-        <v>0.9975571436191506</v>
+        <v>1.030031853697334</v>
       </c>
       <c r="E6">
-        <v>0.9972592189203771</v>
+        <v>1.027574910676143</v>
       </c>
       <c r="F6">
-        <v>0.9714783105515336</v>
+        <v>1.027309835316511</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038611569249026</v>
+        <v>1.029825421544901</v>
       </c>
       <c r="J6">
-        <v>1.00938501299209</v>
+        <v>1.032016084646084</v>
       </c>
       <c r="K6">
-        <v>1.00742196811143</v>
+        <v>1.032470135810565</v>
       </c>
       <c r="L6">
-        <v>1.007127556210522</v>
+        <v>1.030019339189465</v>
       </c>
       <c r="M6">
-        <v>0.9816608003166378</v>
+        <v>1.029754928846783</v>
       </c>
       <c r="N6">
-        <v>1.006641077874026</v>
+        <v>1.014615242035524</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9881804219683131</v>
+        <v>1.027131691248875</v>
       </c>
       <c r="D7">
-        <v>0.9956733708448672</v>
+        <v>1.029632708672384</v>
       </c>
       <c r="E7">
-        <v>0.9955371126977212</v>
+        <v>1.027209026502423</v>
       </c>
       <c r="F7">
-        <v>0.9685254173471602</v>
+        <v>1.026682063742553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038148533712503</v>
+        <v>1.029758240394714</v>
       </c>
       <c r="J7">
-        <v>1.007885180185736</v>
+        <v>1.031704146901986</v>
       </c>
       <c r="K7">
-        <v>1.005821277365642</v>
+        <v>1.032132187157311</v>
       </c>
       <c r="L7">
-        <v>1.00568668126942</v>
+        <v>1.029714730236213</v>
       </c>
       <c r="M7">
-        <v>0.9790160316754676</v>
+        <v>1.029189125181162</v>
       </c>
       <c r="N7">
-        <v>1.006121937768086</v>
+        <v>1.014509300314133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9791704345408642</v>
+        <v>1.025346384191264</v>
       </c>
       <c r="D8">
-        <v>0.9875560580948203</v>
+        <v>1.027961423901445</v>
       </c>
       <c r="E8">
-        <v>0.9881208282550799</v>
+        <v>1.025677188418627</v>
       </c>
       <c r="F8">
-        <v>0.9557571396492252</v>
+        <v>1.024053659101676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036119623852602</v>
+        <v>1.029473095395312</v>
       </c>
       <c r="J8">
-        <v>1.001400609234337</v>
+        <v>1.030395885965844</v>
       </c>
       <c r="K8">
-        <v>0.9989072712878523</v>
+        <v>1.030715595147467</v>
       </c>
       <c r="L8">
-        <v>0.9994641516861261</v>
+        <v>1.028437867245299</v>
       </c>
       <c r="M8">
-        <v>0.9675717420859214</v>
+        <v>1.026818982386159</v>
       </c>
       <c r="N8">
-        <v>1.003875589223406</v>
+        <v>1.014064518203286</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9620877968121696</v>
+        <v>1.022186377622743</v>
       </c>
       <c r="D9">
-        <v>0.9722089453350891</v>
+        <v>1.025004954538403</v>
       </c>
       <c r="E9">
-        <v>0.9741186996812752</v>
+        <v>1.022968091716969</v>
       </c>
       <c r="F9">
-        <v>0.9313883764380277</v>
+        <v>1.019404287668784</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032155373109142</v>
+        <v>1.02895417657644</v>
       </c>
       <c r="J9">
-        <v>0.9890542224081181</v>
+        <v>1.028073550034312</v>
       </c>
       <c r="K9">
-        <v>0.9857696020779667</v>
+        <v>1.028203821736755</v>
       </c>
       <c r="L9">
-        <v>0.9876461203230759</v>
+        <v>1.026173775648194</v>
       </c>
       <c r="M9">
-        <v>0.9457022059475545</v>
+        <v>1.022621970502636</v>
       </c>
       <c r="N9">
-        <v>0.9995929480944834</v>
+        <v>1.013273234536917</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9497234785136234</v>
+        <v>1.020069770884296</v>
       </c>
       <c r="D10">
-        <v>0.9611351872388196</v>
+        <v>1.023025866412619</v>
       </c>
       <c r="E10">
-        <v>0.9640315815215503</v>
+        <v>1.021155084346141</v>
       </c>
       <c r="F10">
-        <v>0.9135817500769323</v>
+        <v>1.016291693723902</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029209860128243</v>
+        <v>1.028597068440183</v>
       </c>
       <c r="J10">
-        <v>0.9800843062505814</v>
+        <v>1.026513525482202</v>
       </c>
       <c r="K10">
-        <v>0.9762434976977079</v>
+        <v>1.026518469631543</v>
       </c>
       <c r="L10">
-        <v>0.9790821125401427</v>
+        <v>1.024654574244393</v>
       </c>
       <c r="M10">
-        <v>0.929708735492114</v>
+        <v>1.01980921788964</v>
       </c>
       <c r="N10">
-        <v>0.996479197912434</v>
+        <v>1.012740540199882</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9440933779216217</v>
+        <v>1.019150792962312</v>
       </c>
       <c r="D11">
-        <v>0.9561021820540676</v>
+        <v>1.022166884170708</v>
       </c>
       <c r="E11">
-        <v>0.9594515874140555</v>
+        <v>1.020368305962069</v>
       </c>
       <c r="F11">
-        <v>0.9054165709168757</v>
+        <v>1.014940584219731</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027851482135105</v>
+        <v>1.028439766893572</v>
       </c>
       <c r="J11">
-        <v>0.9759921997743585</v>
+        <v>1.025835137190026</v>
       </c>
       <c r="K11">
-        <v>0.9719023085760078</v>
+        <v>1.025786038510283</v>
       </c>
       <c r="L11">
-        <v>0.9751809593368226</v>
+        <v>1.023994342890702</v>
       </c>
       <c r="M11">
-        <v>0.9223735450226953</v>
+        <v>1.018587555461154</v>
       </c>
       <c r="N11">
-        <v>0.9950585393704989</v>
+        <v>1.012508624885663</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9419560439976393</v>
+        <v>1.018809062727494</v>
       </c>
       <c r="D12">
-        <v>0.9541930583832897</v>
+        <v>1.021847507801592</v>
       </c>
       <c r="E12">
-        <v>0.9577150628199567</v>
+        <v>1.02007579394671</v>
       </c>
       <c r="F12">
-        <v>0.9023065258539092</v>
+        <v>1.014438200473954</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027333321465089</v>
+        <v>1.028380934764889</v>
       </c>
       <c r="J12">
-        <v>0.974437605356393</v>
+        <v>1.025582712652582</v>
       </c>
       <c r="K12">
-        <v>0.9702538089232217</v>
+        <v>1.02551357355377</v>
       </c>
       <c r="L12">
-        <v>0.9736998310052329</v>
+        <v>1.02374873542729</v>
       </c>
       <c r="M12">
-        <v>0.9195795976718405</v>
+        <v>1.018133198090156</v>
       </c>
       <c r="N12">
-        <v>0.9945188448785671</v>
+        <v>1.012422290345868</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9424166751814912</v>
+        <v>1.018882382411181</v>
       </c>
       <c r="D13">
-        <v>0.9546044350726413</v>
+        <v>1.021916029370796</v>
       </c>
       <c r="E13">
-        <v>0.9580892122821504</v>
+        <v>1.020138550983851</v>
       </c>
       <c r="F13">
-        <v>0.9029772906996039</v>
+        <v>1.014545987421631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027445104326235</v>
+        <v>1.028393572739941</v>
       </c>
       <c r="J13">
-        <v>0.9747726967531034</v>
+        <v>1.025636878640562</v>
       </c>
       <c r="K13">
-        <v>0.9706091085550622</v>
+        <v>1.025572036768589</v>
       </c>
       <c r="L13">
-        <v>0.9740190442532001</v>
+        <v>1.023801435826229</v>
       </c>
       <c r="M13">
-        <v>0.9201821860459627</v>
+        <v>1.018230685720848</v>
       </c>
       <c r="N13">
-        <v>0.9946351742056488</v>
+        <v>1.012440818071933</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9439176739251643</v>
+        <v>1.019122553259469</v>
       </c>
       <c r="D14">
-        <v>0.9559452066952229</v>
+        <v>1.022140490834297</v>
       </c>
       <c r="E14">
-        <v>0.9593087878925283</v>
+        <v>1.020344132324834</v>
       </c>
       <c r="F14">
-        <v>0.9051611238383194</v>
+        <v>1.014899067779905</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027808935450684</v>
+        <v>1.028434912050873</v>
       </c>
       <c r="J14">
-        <v>0.9758644237217111</v>
+        <v>1.025814280735166</v>
       </c>
       <c r="K14">
-        <v>0.971766799457265</v>
+        <v>1.025763524826518</v>
       </c>
       <c r="L14">
-        <v>0.9750592026111181</v>
+        <v>1.023974048448995</v>
       </c>
       <c r="M14">
-        <v>0.9221440606159347</v>
+        <v>1.018550010027916</v>
       </c>
       <c r="N14">
-        <v>0.9950141799797223</v>
+        <v>1.012501492352649</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9448362359839798</v>
+        <v>1.019270479689446</v>
       </c>
       <c r="D15">
-        <v>0.9567659205308722</v>
+        <v>1.022278747349664</v>
       </c>
       <c r="E15">
-        <v>0.9600554176625206</v>
+        <v>1.020470762119687</v>
       </c>
       <c r="F15">
-        <v>0.9064961436816529</v>
+        <v>1.015116542522998</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028031264746874</v>
+        <v>1.028460329059602</v>
       </c>
       <c r="J15">
-        <v>0.9765323780596991</v>
+        <v>1.025923525379884</v>
       </c>
       <c r="K15">
-        <v>0.9724752081231952</v>
+        <v>1.025881452727862</v>
       </c>
       <c r="L15">
-        <v>0.9756957284756838</v>
+        <v>1.024080351804786</v>
       </c>
       <c r="M15">
-        <v>0.9233433937161215</v>
+        <v>1.018746679188765</v>
       </c>
       <c r="N15">
-        <v>0.9952460712757911</v>
+        <v>1.012538850418804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9500909363917874</v>
+        <v>1.020130707518982</v>
       </c>
       <c r="D16">
-        <v>0.9614638792179192</v>
+        <v>1.023082830907606</v>
       </c>
       <c r="E16">
-        <v>0.9643307892227437</v>
+        <v>1.021207263107146</v>
       </c>
       <c r="F16">
-        <v>0.9141133479822909</v>
+        <v>1.016381290398338</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029298170616752</v>
+        <v>1.028607451574067</v>
       </c>
       <c r="J16">
-        <v>0.9803512287683602</v>
+        <v>1.026558486438954</v>
       </c>
       <c r="K16">
-        <v>0.9765267652712935</v>
+        <v>1.026567021945572</v>
       </c>
       <c r="L16">
-        <v>0.9793367029733759</v>
+        <v>1.024698340356552</v>
       </c>
       <c r="M16">
-        <v>0.9301862812291835</v>
+        <v>1.019890215620524</v>
       </c>
       <c r="N16">
-        <v>0.9965718654220823</v>
+        <v>1.012755905015737</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9533101088169604</v>
+        <v>1.02066963698858</v>
       </c>
       <c r="D17">
-        <v>0.9643445113703319</v>
+        <v>1.023586663747997</v>
       </c>
       <c r="E17">
-        <v>0.9669535471896024</v>
+        <v>1.021668781537781</v>
       </c>
       <c r="F17">
-        <v>0.9187639187109253</v>
+        <v>1.017173725939695</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030069911697244</v>
+        <v>1.028699021044396</v>
       </c>
       <c r="J17">
-        <v>0.9826887889408363</v>
+        <v>1.026956002699088</v>
       </c>
       <c r="K17">
-        <v>0.9790079912687996</v>
+        <v>1.02699634335984</v>
       </c>
       <c r="L17">
-        <v>0.9815669201019263</v>
+        <v>1.025085339227503</v>
       </c>
       <c r="M17">
-        <v>0.9343638455690787</v>
+        <v>1.020606516426853</v>
       </c>
       <c r="N17">
-        <v>0.9973833830596807</v>
+        <v>1.012891719979417</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9551614849161689</v>
+        <v>1.020983747435139</v>
       </c>
       <c r="D18">
-        <v>0.9660020649266123</v>
+        <v>1.023880346178307</v>
       </c>
       <c r="E18">
-        <v>0.9684631409216451</v>
+        <v>1.021937810575859</v>
       </c>
       <c r="F18">
-        <v>0.9214333080833431</v>
+        <v>1.01763561971441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030512137180744</v>
+        <v>1.028752174354963</v>
       </c>
       <c r="J18">
-        <v>0.9840324242128984</v>
+        <v>1.027187589105093</v>
       </c>
       <c r="K18">
-        <v>0.9804346393101441</v>
+        <v>1.027246502886193</v>
       </c>
       <c r="L18">
-        <v>0.9828493904416312</v>
+        <v>1.02531083731244</v>
       </c>
       <c r="M18">
-        <v>0.9367615871429575</v>
+        <v>1.021023964700738</v>
       </c>
       <c r="N18">
-        <v>0.9978498282257303</v>
+        <v>1.012970817602656</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9557884201137151</v>
+        <v>1.021090810892908</v>
       </c>
       <c r="D19">
-        <v>0.9665635107275695</v>
+        <v>1.023980451507513</v>
       </c>
       <c r="E19">
-        <v>0.9689745398094638</v>
+        <v>1.022029514432783</v>
       </c>
       <c r="F19">
-        <v>0.9223364141891192</v>
+        <v>1.017793059810588</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030661613231137</v>
+        <v>1.028770254624369</v>
       </c>
       <c r="J19">
-        <v>0.9844872995990194</v>
+        <v>1.027266507127891</v>
       </c>
       <c r="K19">
-        <v>0.9809176908185834</v>
+        <v>1.027331757554335</v>
       </c>
       <c r="L19">
-        <v>0.9832836484677341</v>
+        <v>1.025387687208491</v>
       </c>
       <c r="M19">
-        <v>0.9375727600958775</v>
+        <v>1.021166243626447</v>
       </c>
       <c r="N19">
-        <v>0.9980077349943471</v>
+        <v>1.012997767402241</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9529674743627932</v>
+        <v>1.020611839641401</v>
       </c>
       <c r="D20">
-        <v>0.9640378178289937</v>
+        <v>1.023532627453575</v>
       </c>
       <c r="E20">
-        <v>0.9666742642417915</v>
+        <v>1.021619282286715</v>
       </c>
       <c r="F20">
-        <v>0.9182694845201775</v>
+        <v>1.017088738400261</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029987937817775</v>
+        <v>1.028689223167266</v>
       </c>
       <c r="J20">
-        <v>0.9824400638010553</v>
+        <v>1.026913381783489</v>
       </c>
       <c r="K20">
-        <v>0.978743934332703</v>
+        <v>1.026950307808486</v>
       </c>
       <c r="L20">
-        <v>0.9813295605395222</v>
+        <v>1.025043841935285</v>
       </c>
       <c r="M20">
-        <v>0.9339197140011608</v>
+        <v>1.020529701277858</v>
       </c>
       <c r="N20">
-        <v>0.997297036078709</v>
+        <v>1.012877160845895</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9434769791203131</v>
+        <v>1.019051839521417</v>
       </c>
       <c r="D21">
-        <v>0.9555515115462374</v>
+        <v>1.022074401208775</v>
       </c>
       <c r="E21">
-        <v>0.9589506583521058</v>
+        <v>1.020283601184139</v>
       </c>
       <c r="F21">
-        <v>0.9045202475293309</v>
+        <v>1.014795108975657</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027702181694368</v>
+        <v>1.028422749804144</v>
       </c>
       <c r="J21">
-        <v>0.9755439221889799</v>
+        <v>1.025762052469119</v>
       </c>
       <c r="K21">
-        <v>0.9714269126971121</v>
+        <v>1.025707147673053</v>
       </c>
       <c r="L21">
-        <v>0.9747538144234646</v>
+        <v>1.023923228548916</v>
       </c>
       <c r="M21">
-        <v>0.9215683205995217</v>
+        <v>1.018455993070097</v>
       </c>
       <c r="N21">
-        <v>0.9949029133959556</v>
+        <v>1.01248363057664</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9372405813478432</v>
+        <v>1.018068796964824</v>
       </c>
       <c r="D22">
-        <v>0.9499840634536854</v>
+        <v>1.02115574663037</v>
       </c>
       <c r="E22">
-        <v>0.9538880920243827</v>
+        <v>1.019442254338921</v>
       </c>
       <c r="F22">
-        <v>0.8954236520631991</v>
+        <v>1.013349985543414</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026185651736972</v>
+        <v>1.0282528728755</v>
       </c>
       <c r="J22">
-        <v>0.9710057516601862</v>
+        <v>1.025035611416291</v>
       </c>
       <c r="K22">
-        <v>0.9666160168082035</v>
+        <v>1.024923162581056</v>
       </c>
       <c r="L22">
-        <v>0.9704319326434484</v>
+        <v>1.023216521209079</v>
       </c>
       <c r="M22">
-        <v>0.9133964418373948</v>
+        <v>1.017148819648123</v>
       </c>
       <c r="N22">
-        <v>0.9933275128526703</v>
+        <v>1.01223509702887</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9405738704459411</v>
+        <v>1.018590138913081</v>
       </c>
       <c r="D23">
-        <v>0.9529589134086902</v>
+        <v>1.021642917061266</v>
       </c>
       <c r="E23">
-        <v>0.9565927189284963</v>
+        <v>1.01988841758673</v>
       </c>
       <c r="F23">
-        <v>0.900292152119177</v>
+        <v>1.014116366647784</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026997547944208</v>
+        <v>1.028343149808006</v>
       </c>
       <c r="J23">
-        <v>0.9734319644624904</v>
+        <v>1.025420956110326</v>
       </c>
       <c r="K23">
-        <v>0.9691876289840594</v>
+        <v>1.025338994199423</v>
       </c>
       <c r="L23">
-        <v>0.9727419819839425</v>
+        <v>1.023591364534603</v>
       </c>
       <c r="M23">
-        <v>0.9177699747702308</v>
+        <v>1.017842100806662</v>
       </c>
       <c r="N23">
-        <v>0.9941697349442832</v>
+        <v>1.012366954921438</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9531223771029627</v>
+        <v>1.020637956510274</v>
       </c>
       <c r="D24">
-        <v>0.9641764692117106</v>
+        <v>1.023557044730983</v>
       </c>
       <c r="E24">
-        <v>0.9668005224076642</v>
+        <v>1.021641649383368</v>
       </c>
       <c r="F24">
-        <v>0.9184930309355515</v>
+        <v>1.017127141601016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030025002670847</v>
+        <v>1.028693651202271</v>
       </c>
       <c r="J24">
-        <v>0.9825525130019059</v>
+        <v>1.026932641200102</v>
       </c>
       <c r="K24">
-        <v>0.9788633137277871</v>
+        <v>1.026971110084944</v>
       </c>
       <c r="L24">
-        <v>0.9814368696739703</v>
+        <v>1.025062593491828</v>
       </c>
       <c r="M24">
-        <v>0.934120517773531</v>
+        <v>1.020564411842762</v>
       </c>
       <c r="N24">
-        <v>0.997336073801078</v>
+        <v>1.012883739865426</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9666626306642483</v>
+        <v>1.0230050310077</v>
       </c>
       <c r="D25">
-        <v>0.9763135459810937</v>
+        <v>1.025770671691056</v>
       </c>
       <c r="E25">
-        <v>0.977861057597892</v>
+        <v>1.023669655818002</v>
       </c>
       <c r="F25">
-        <v>0.9379383444617886</v>
+        <v>1.020608477350265</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033230228120311</v>
+        <v>1.02909028971857</v>
       </c>
       <c r="J25">
-        <v>0.9923664814417673</v>
+        <v>1.028675982699109</v>
       </c>
       <c r="K25">
-        <v>0.9892910405563143</v>
+        <v>1.028855057520654</v>
       </c>
       <c r="L25">
-        <v>0.9908130579167482</v>
+        <v>1.026760801756369</v>
       </c>
       <c r="M25">
-        <v>0.9515830858761288</v>
+        <v>1.023709527329995</v>
       </c>
       <c r="N25">
-        <v>1.000742394002598</v>
+        <v>1.013478703371661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_196/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024885835776341</v>
+        <v>0.976774403858228</v>
       </c>
       <c r="D2">
-        <v>1.027530404479445</v>
+        <v>0.985400083219452</v>
       </c>
       <c r="E2">
-        <v>1.025282178188</v>
+        <v>0.9861522476185125</v>
       </c>
       <c r="F2">
-        <v>1.023375831561647</v>
+        <v>0.9523528805670524</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029398573948809</v>
+        <v>1.035572225536213</v>
       </c>
       <c r="J2">
-        <v>1.030057944561719</v>
+        <v>0.999672696526213</v>
       </c>
       <c r="K2">
-        <v>1.030349864236994</v>
+        <v>0.997066636413544</v>
       </c>
       <c r="L2">
-        <v>1.028108205776566</v>
+        <v>0.9978079353310579</v>
       </c>
       <c r="M2">
-        <v>1.026207452831525</v>
+        <v>0.9645184995292382</v>
       </c>
       <c r="N2">
-        <v>1.013949506833425</v>
+        <v>1.003276593578786</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026247476100909</v>
+        <v>0.9837721469482393</v>
       </c>
       <c r="D3">
-        <v>1.028804876444447</v>
+        <v>0.9916998599159214</v>
       </c>
       <c r="E3">
-        <v>1.026450230152765</v>
+        <v>0.9919058712562748</v>
       </c>
       <c r="F3">
-        <v>1.025380114816553</v>
+        <v>0.9622844870547247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029617767452617</v>
+        <v>1.037161939186857</v>
       </c>
       <c r="J3">
-        <v>1.031056554653581</v>
+        <v>1.004715192658081</v>
       </c>
       <c r="K3">
-        <v>1.031430819698768</v>
+        <v>1.002440055882677</v>
       </c>
       <c r="L3">
-        <v>1.029082548166909</v>
+        <v>1.002643376412759</v>
       </c>
       <c r="M3">
-        <v>1.028015340439793</v>
+        <v>0.9734238268446922</v>
       </c>
       <c r="N3">
-        <v>1.014289224448835</v>
+        <v>1.005024150541565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027126755963512</v>
+        <v>0.9881561042004076</v>
       </c>
       <c r="D4">
-        <v>1.029628087600074</v>
+        <v>0.9956514408572458</v>
       </c>
       <c r="E4">
-        <v>1.027204790601749</v>
+        <v>0.9955170670194344</v>
       </c>
       <c r="F4">
-        <v>1.026674795879949</v>
+        <v>0.9684910196970258</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029757460501956</v>
+        <v>1.038143125056237</v>
       </c>
       <c r="J4">
-        <v>1.031700534301232</v>
+        <v>1.007867708253936</v>
       </c>
       <c r="K4">
-        <v>1.032128273735062</v>
+        <v>1.005802634053727</v>
       </c>
       <c r="L4">
-        <v>1.029711202872723</v>
+        <v>1.005669899920226</v>
       </c>
       <c r="M4">
-        <v>1.02918257408318</v>
+        <v>0.9789852186413018</v>
       </c>
       <c r="N4">
-        <v>1.014508073131047</v>
+        <v>1.006115889129964</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02749598362172</v>
+        <v>0.9899666632944089</v>
       </c>
       <c r="D5">
-        <v>1.029973823085706</v>
+        <v>0.9972845417492056</v>
       </c>
       <c r="E5">
-        <v>1.027521714744117</v>
+        <v>0.9970099881105868</v>
       </c>
       <c r="F5">
-        <v>1.027218564016546</v>
+        <v>0.9710512187160114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029815676697336</v>
+        <v>1.038544756550456</v>
       </c>
       <c r="J5">
-        <v>1.031970745254772</v>
+        <v>1.009168094084267</v>
       </c>
       <c r="K5">
-        <v>1.032421011380872</v>
+        <v>1.007190424760164</v>
       </c>
       <c r="L5">
-        <v>1.029975061175865</v>
+        <v>1.006919124493374</v>
       </c>
       <c r="M5">
-        <v>1.029672673969944</v>
+        <v>0.981278323928699</v>
       </c>
       <c r="N5">
-        <v>1.014599846381376</v>
+        <v>1.006566006496421</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027557954065214</v>
+        <v>0.990268816378669</v>
       </c>
       <c r="D6">
-        <v>1.030031853697334</v>
+        <v>0.9975571436191516</v>
       </c>
       <c r="E6">
-        <v>1.027574910676143</v>
+        <v>0.9972592189203774</v>
       </c>
       <c r="F6">
-        <v>1.027309835316511</v>
+        <v>0.9714783105515346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029825421544901</v>
+        <v>1.038611569249026</v>
       </c>
       <c r="J6">
-        <v>1.032016084646084</v>
+        <v>1.00938501299209</v>
       </c>
       <c r="K6">
-        <v>1.032470135810565</v>
+        <v>1.007421968111431</v>
       </c>
       <c r="L6">
-        <v>1.030019339189465</v>
+        <v>1.007127556210523</v>
       </c>
       <c r="M6">
-        <v>1.029754928846783</v>
+        <v>0.9816608003166387</v>
       </c>
       <c r="N6">
-        <v>1.014615242035524</v>
+        <v>1.006641077874027</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027131691248875</v>
+        <v>0.9881804219683131</v>
       </c>
       <c r="D7">
-        <v>1.029632708672384</v>
+        <v>0.9956733708448674</v>
       </c>
       <c r="E7">
-        <v>1.027209026502423</v>
+        <v>0.995537112697721</v>
       </c>
       <c r="F7">
-        <v>1.026682063742553</v>
+        <v>0.9685254173471606</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029758240394714</v>
+        <v>1.038148533712503</v>
       </c>
       <c r="J7">
-        <v>1.031704146901986</v>
+        <v>1.007885180185736</v>
       </c>
       <c r="K7">
-        <v>1.032132187157311</v>
+        <v>1.005821277365643</v>
       </c>
       <c r="L7">
-        <v>1.029714730236213</v>
+        <v>1.00568668126942</v>
       </c>
       <c r="M7">
-        <v>1.029189125181162</v>
+        <v>0.9790160316754678</v>
       </c>
       <c r="N7">
-        <v>1.014509300314133</v>
+        <v>1.006121937768086</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025346384191264</v>
+        <v>0.9791704345408644</v>
       </c>
       <c r="D8">
-        <v>1.027961423901445</v>
+        <v>0.9875560580948204</v>
       </c>
       <c r="E8">
-        <v>1.025677188418627</v>
+        <v>0.9881208282550799</v>
       </c>
       <c r="F8">
-        <v>1.024053659101676</v>
+        <v>0.9557571396492256</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029473095395312</v>
+        <v>1.036119623852602</v>
       </c>
       <c r="J8">
-        <v>1.030395885965844</v>
+        <v>1.001400609234338</v>
       </c>
       <c r="K8">
-        <v>1.030715595147467</v>
+        <v>0.9989072712878524</v>
       </c>
       <c r="L8">
-        <v>1.028437867245299</v>
+        <v>0.9994641516861261</v>
       </c>
       <c r="M8">
-        <v>1.026818982386159</v>
+        <v>0.9675717420859218</v>
       </c>
       <c r="N8">
-        <v>1.014064518203286</v>
+        <v>1.003875589223406</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022186377622743</v>
+        <v>0.9620877968121693</v>
       </c>
       <c r="D9">
-        <v>1.025004954538403</v>
+        <v>0.9722089453350887</v>
       </c>
       <c r="E9">
-        <v>1.022968091716969</v>
+        <v>0.9741186996812747</v>
       </c>
       <c r="F9">
-        <v>1.019404287668784</v>
+        <v>0.9313883764380276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02895417657644</v>
+        <v>1.032155373109141</v>
       </c>
       <c r="J9">
-        <v>1.028073550034312</v>
+        <v>0.9890542224081177</v>
       </c>
       <c r="K9">
-        <v>1.028203821736755</v>
+        <v>0.9857696020779662</v>
       </c>
       <c r="L9">
-        <v>1.026173775648194</v>
+        <v>0.9876461203230753</v>
       </c>
       <c r="M9">
-        <v>1.022621970502636</v>
+        <v>0.9457022059475544</v>
       </c>
       <c r="N9">
-        <v>1.013273234536917</v>
+        <v>0.9995929480944835</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020069770884296</v>
+        <v>0.9497234785136223</v>
       </c>
       <c r="D10">
-        <v>1.023025866412619</v>
+        <v>0.961135187238818</v>
       </c>
       <c r="E10">
-        <v>1.021155084346141</v>
+        <v>0.9640315815215491</v>
       </c>
       <c r="F10">
-        <v>1.016291693723902</v>
+        <v>0.9135817500769309</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028597068440183</v>
+        <v>1.029209860128242</v>
       </c>
       <c r="J10">
-        <v>1.026513525482202</v>
+        <v>0.9800843062505803</v>
       </c>
       <c r="K10">
-        <v>1.026518469631543</v>
+        <v>0.9762434976977065</v>
       </c>
       <c r="L10">
-        <v>1.024654574244393</v>
+        <v>0.9790821125401413</v>
       </c>
       <c r="M10">
-        <v>1.01980921788964</v>
+        <v>0.9297087354921126</v>
       </c>
       <c r="N10">
-        <v>1.012740540199882</v>
+        <v>0.9964791979124334</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019150792962312</v>
+        <v>0.9440933779216225</v>
       </c>
       <c r="D11">
-        <v>1.022166884170708</v>
+        <v>0.9561021820540682</v>
       </c>
       <c r="E11">
-        <v>1.020368305962069</v>
+        <v>0.9594515874140561</v>
       </c>
       <c r="F11">
-        <v>1.014940584219731</v>
+        <v>0.9054165709168771</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028439766893572</v>
+        <v>1.027851482135105</v>
       </c>
       <c r="J11">
-        <v>1.025835137190026</v>
+        <v>0.9759921997743592</v>
       </c>
       <c r="K11">
-        <v>1.025786038510283</v>
+        <v>0.9719023085760083</v>
       </c>
       <c r="L11">
-        <v>1.023994342890702</v>
+        <v>0.9751809593368231</v>
       </c>
       <c r="M11">
-        <v>1.018587555461154</v>
+        <v>0.9223735450226966</v>
       </c>
       <c r="N11">
-        <v>1.012508624885663</v>
+        <v>0.995058539370499</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018809062727494</v>
+        <v>0.9419560439976393</v>
       </c>
       <c r="D12">
-        <v>1.021847507801592</v>
+        <v>0.9541930583832894</v>
       </c>
       <c r="E12">
-        <v>1.02007579394671</v>
+        <v>0.9577150628199566</v>
       </c>
       <c r="F12">
-        <v>1.014438200473954</v>
+        <v>0.9023065258539097</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028380934764889</v>
+        <v>1.027333321465089</v>
       </c>
       <c r="J12">
-        <v>1.025582712652582</v>
+        <v>0.974437605356393</v>
       </c>
       <c r="K12">
-        <v>1.02551357355377</v>
+        <v>0.9702538089232213</v>
       </c>
       <c r="L12">
-        <v>1.02374873542729</v>
+        <v>0.9736998310052324</v>
       </c>
       <c r="M12">
-        <v>1.018133198090156</v>
+        <v>0.9195795976718411</v>
       </c>
       <c r="N12">
-        <v>1.012422290345868</v>
+        <v>0.9945188448785671</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018882382411181</v>
+        <v>0.9424166751814907</v>
       </c>
       <c r="D13">
-        <v>1.021916029370796</v>
+        <v>0.9546044350726407</v>
       </c>
       <c r="E13">
-        <v>1.020138550983851</v>
+        <v>0.95808921228215</v>
       </c>
       <c r="F13">
-        <v>1.014545987421631</v>
+        <v>0.9029772906996032</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028393572739941</v>
+        <v>1.027445104326235</v>
       </c>
       <c r="J13">
-        <v>1.025636878640562</v>
+        <v>0.9747726967531029</v>
       </c>
       <c r="K13">
-        <v>1.025572036768589</v>
+        <v>0.9706091085550617</v>
       </c>
       <c r="L13">
-        <v>1.023801435826229</v>
+        <v>0.9740190442531994</v>
       </c>
       <c r="M13">
-        <v>1.018230685720848</v>
+        <v>0.920182186045962</v>
       </c>
       <c r="N13">
-        <v>1.012440818071933</v>
+        <v>0.9946351742056487</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019122553259469</v>
+        <v>0.9439176739251641</v>
       </c>
       <c r="D14">
-        <v>1.022140490834297</v>
+        <v>0.9559452066952229</v>
       </c>
       <c r="E14">
-        <v>1.020344132324834</v>
+        <v>0.9593087878925277</v>
       </c>
       <c r="F14">
-        <v>1.014899067779905</v>
+        <v>0.9051611238383187</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028434912050873</v>
+        <v>1.027808935450684</v>
       </c>
       <c r="J14">
-        <v>1.025814280735166</v>
+        <v>0.9758644237217107</v>
       </c>
       <c r="K14">
-        <v>1.025763524826518</v>
+        <v>0.9717667994572647</v>
       </c>
       <c r="L14">
-        <v>1.023974048448995</v>
+        <v>0.9750592026111177</v>
       </c>
       <c r="M14">
-        <v>1.018550010027916</v>
+        <v>0.9221440606159339</v>
       </c>
       <c r="N14">
-        <v>1.012501492352649</v>
+        <v>0.9950141799797222</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019270479689446</v>
+        <v>0.9448362359839803</v>
       </c>
       <c r="D15">
-        <v>1.022278747349664</v>
+        <v>0.9567659205308725</v>
       </c>
       <c r="E15">
-        <v>1.020470762119687</v>
+        <v>0.960055417662521</v>
       </c>
       <c r="F15">
-        <v>1.015116542522998</v>
+        <v>0.9064961436816535</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028460329059602</v>
+        <v>1.028031264746874</v>
       </c>
       <c r="J15">
-        <v>1.025923525379884</v>
+        <v>0.9765323780596995</v>
       </c>
       <c r="K15">
-        <v>1.025881452727862</v>
+        <v>0.9724752081231955</v>
       </c>
       <c r="L15">
-        <v>1.024080351804786</v>
+        <v>0.9756957284756841</v>
       </c>
       <c r="M15">
-        <v>1.018746679188765</v>
+        <v>0.9233433937161222</v>
       </c>
       <c r="N15">
-        <v>1.012538850418804</v>
+        <v>0.9952460712757913</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020130707518982</v>
+        <v>0.9500909363917874</v>
       </c>
       <c r="D16">
-        <v>1.023082830907606</v>
+        <v>0.9614638792179194</v>
       </c>
       <c r="E16">
-        <v>1.021207263107146</v>
+        <v>0.964330789222744</v>
       </c>
       <c r="F16">
-        <v>1.016381290398338</v>
+        <v>0.9141133479822913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028607451574067</v>
+        <v>1.029298170616752</v>
       </c>
       <c r="J16">
-        <v>1.026558486438954</v>
+        <v>0.9803512287683604</v>
       </c>
       <c r="K16">
-        <v>1.026567021945572</v>
+        <v>0.9765267652712936</v>
       </c>
       <c r="L16">
-        <v>1.024698340356552</v>
+        <v>0.979336702973376</v>
       </c>
       <c r="M16">
-        <v>1.019890215620524</v>
+        <v>0.9301862812291838</v>
       </c>
       <c r="N16">
-        <v>1.012755905015737</v>
+        <v>0.9965718654220824</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02066963698858</v>
+        <v>0.9533101088169605</v>
       </c>
       <c r="D17">
-        <v>1.023586663747997</v>
+        <v>0.9643445113703322</v>
       </c>
       <c r="E17">
-        <v>1.021668781537781</v>
+        <v>0.9669535471896027</v>
       </c>
       <c r="F17">
-        <v>1.017173725939695</v>
+        <v>0.9187639187109256</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028699021044396</v>
+        <v>1.030069911697244</v>
       </c>
       <c r="J17">
-        <v>1.026956002699088</v>
+        <v>0.9826887889408366</v>
       </c>
       <c r="K17">
-        <v>1.02699634335984</v>
+        <v>0.9790079912687998</v>
       </c>
       <c r="L17">
-        <v>1.025085339227503</v>
+        <v>0.9815669201019264</v>
       </c>
       <c r="M17">
-        <v>1.020606516426853</v>
+        <v>0.9343638455690791</v>
       </c>
       <c r="N17">
-        <v>1.012891719979417</v>
+        <v>0.9973833830596808</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020983747435139</v>
+        <v>0.9551614849161695</v>
       </c>
       <c r="D18">
-        <v>1.023880346178307</v>
+        <v>0.9660020649266129</v>
       </c>
       <c r="E18">
-        <v>1.021937810575859</v>
+        <v>0.9684631409216459</v>
       </c>
       <c r="F18">
-        <v>1.01763561971441</v>
+        <v>0.9214333080833436</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028752174354963</v>
+        <v>1.030512137180744</v>
       </c>
       <c r="J18">
-        <v>1.027187589105093</v>
+        <v>0.9840324242128988</v>
       </c>
       <c r="K18">
-        <v>1.027246502886193</v>
+        <v>0.9804346393101445</v>
       </c>
       <c r="L18">
-        <v>1.02531083731244</v>
+        <v>0.9828493904416318</v>
       </c>
       <c r="M18">
-        <v>1.021023964700738</v>
+        <v>0.9367615871429582</v>
       </c>
       <c r="N18">
-        <v>1.012970817602656</v>
+        <v>0.9978498282257304</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021090810892908</v>
+        <v>0.9557884201137139</v>
       </c>
       <c r="D19">
-        <v>1.023980451507513</v>
+        <v>0.9665635107275683</v>
       </c>
       <c r="E19">
-        <v>1.022029514432783</v>
+        <v>0.9689745398094631</v>
       </c>
       <c r="F19">
-        <v>1.017793059810588</v>
+        <v>0.9223364141891174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028770254624369</v>
+        <v>1.030661613231136</v>
       </c>
       <c r="J19">
-        <v>1.027266507127891</v>
+        <v>0.9844872995990184</v>
       </c>
       <c r="K19">
-        <v>1.027331757554335</v>
+        <v>0.980917690818582</v>
       </c>
       <c r="L19">
-        <v>1.025387687208491</v>
+        <v>0.9832836484677334</v>
       </c>
       <c r="M19">
-        <v>1.021166243626447</v>
+        <v>0.9375727600958758</v>
       </c>
       <c r="N19">
-        <v>1.012997767402241</v>
+        <v>0.9980077349943468</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020611839641401</v>
+        <v>0.9529674743627932</v>
       </c>
       <c r="D20">
-        <v>1.023532627453575</v>
+        <v>0.9640378178289937</v>
       </c>
       <c r="E20">
-        <v>1.021619282286715</v>
+        <v>0.9666742642417915</v>
       </c>
       <c r="F20">
-        <v>1.017088738400261</v>
+        <v>0.9182694845201771</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028689223167266</v>
+        <v>1.029987937817775</v>
       </c>
       <c r="J20">
-        <v>1.026913381783489</v>
+        <v>0.9824400638010553</v>
       </c>
       <c r="K20">
-        <v>1.026950307808486</v>
+        <v>0.978743934332703</v>
       </c>
       <c r="L20">
-        <v>1.025043841935285</v>
+        <v>0.9813295605395225</v>
       </c>
       <c r="M20">
-        <v>1.020529701277858</v>
+        <v>0.9339197140011604</v>
       </c>
       <c r="N20">
-        <v>1.012877160845895</v>
+        <v>0.997297036078709</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019051839521417</v>
+        <v>0.9434769791203141</v>
       </c>
       <c r="D21">
-        <v>1.022074401208775</v>
+        <v>0.9555515115462385</v>
       </c>
       <c r="E21">
-        <v>1.020283601184139</v>
+        <v>0.9589506583521067</v>
       </c>
       <c r="F21">
-        <v>1.014795108975657</v>
+        <v>0.9045202475293322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028422749804144</v>
+        <v>1.027702181694369</v>
       </c>
       <c r="J21">
-        <v>1.025762052469119</v>
+        <v>0.9755439221889808</v>
       </c>
       <c r="K21">
-        <v>1.025707147673053</v>
+        <v>0.9714269126971132</v>
       </c>
       <c r="L21">
-        <v>1.023923228548916</v>
+        <v>0.9747538144234656</v>
       </c>
       <c r="M21">
-        <v>1.018455993070097</v>
+        <v>0.921568320599523</v>
       </c>
       <c r="N21">
-        <v>1.01248363057664</v>
+        <v>0.9949029133959559</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018068796964824</v>
+        <v>0.9372405813478413</v>
       </c>
       <c r="D22">
-        <v>1.02115574663037</v>
+        <v>0.9499840634536838</v>
       </c>
       <c r="E22">
-        <v>1.019442254338921</v>
+        <v>0.9538880920243809</v>
       </c>
       <c r="F22">
-        <v>1.013349985543414</v>
+        <v>0.8954236520631971</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0282528728755</v>
+        <v>1.026185651736971</v>
       </c>
       <c r="J22">
-        <v>1.025035611416291</v>
+        <v>0.9710057516601844</v>
       </c>
       <c r="K22">
-        <v>1.024923162581056</v>
+        <v>0.9666160168082019</v>
       </c>
       <c r="L22">
-        <v>1.023216521209079</v>
+        <v>0.9704319326434463</v>
       </c>
       <c r="M22">
-        <v>1.017148819648123</v>
+        <v>0.9133964418373928</v>
       </c>
       <c r="N22">
-        <v>1.01223509702887</v>
+        <v>0.9933275128526698</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018590138913081</v>
+        <v>0.9405738704459415</v>
       </c>
       <c r="D23">
-        <v>1.021642917061266</v>
+        <v>0.9529589134086904</v>
       </c>
       <c r="E23">
-        <v>1.01988841758673</v>
+        <v>0.9565927189284965</v>
       </c>
       <c r="F23">
-        <v>1.014116366647784</v>
+        <v>0.9002921521191776</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028343149808006</v>
+        <v>1.026997547944209</v>
       </c>
       <c r="J23">
-        <v>1.025420956110326</v>
+        <v>0.9734319644624907</v>
       </c>
       <c r="K23">
-        <v>1.025338994199423</v>
+        <v>0.9691876289840596</v>
       </c>
       <c r="L23">
-        <v>1.023591364534603</v>
+        <v>0.9727419819839426</v>
       </c>
       <c r="M23">
-        <v>1.017842100806662</v>
+        <v>0.9177699747702311</v>
       </c>
       <c r="N23">
-        <v>1.012366954921438</v>
+        <v>0.9941697349442833</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020637956510274</v>
+        <v>0.9531223771029619</v>
       </c>
       <c r="D24">
-        <v>1.023557044730983</v>
+        <v>0.96417646921171</v>
       </c>
       <c r="E24">
-        <v>1.021641649383368</v>
+        <v>0.9668005224076631</v>
       </c>
       <c r="F24">
-        <v>1.017127141601016</v>
+        <v>0.9184930309355509</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028693651202271</v>
+        <v>1.030025002670847</v>
       </c>
       <c r="J24">
-        <v>1.026932641200102</v>
+        <v>0.982552513001905</v>
       </c>
       <c r="K24">
-        <v>1.026971110084944</v>
+        <v>0.9788633137277863</v>
       </c>
       <c r="L24">
-        <v>1.025062593491828</v>
+        <v>0.9814368696739691</v>
       </c>
       <c r="M24">
-        <v>1.020564411842762</v>
+        <v>0.9341205177735304</v>
       </c>
       <c r="N24">
-        <v>1.012883739865426</v>
+        <v>0.9973360738010778</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0230050310077</v>
+        <v>0.9666626306642476</v>
       </c>
       <c r="D25">
-        <v>1.025770671691056</v>
+        <v>0.9763135459810928</v>
       </c>
       <c r="E25">
-        <v>1.023669655818002</v>
+        <v>0.9778610575978913</v>
       </c>
       <c r="F25">
-        <v>1.020608477350265</v>
+        <v>0.9379383444617876</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02909028971857</v>
+        <v>1.03323022812031</v>
       </c>
       <c r="J25">
-        <v>1.028675982699109</v>
+        <v>0.9923664814417668</v>
       </c>
       <c r="K25">
-        <v>1.028855057520654</v>
+        <v>0.9892910405563135</v>
       </c>
       <c r="L25">
-        <v>1.026760801756369</v>
+        <v>0.9908130579167478</v>
       </c>
       <c r="M25">
-        <v>1.023709527329995</v>
+        <v>0.9515830858761281</v>
       </c>
       <c r="N25">
-        <v>1.013478703371661</v>
+        <v>1.000742394002598</v>
       </c>
     </row>
   </sheetData>
